--- a/documentation-generator/vocab_csv/toms.xlsx
+++ b/documentation-generator/vocab_csv/toms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="577">
   <si>
     <t>Term</t>
   </si>
@@ -260,13 +260,26 @@
     <t>Anonymisation</t>
   </si>
   <si>
-    <t>Altering personal data irreversibly such that a data subject can no longer be identified directly or indirectly, either by the data controller alone or in collaboration with any other party</t>
-  </si>
-  <si>
-    <t>dpv:DataAnonymisationTechnique</t>
-  </si>
-  <si>
-    <t>(GDPR Art.4-5,https://eur-lex.europa.eu/eli/reg/2016/679/art_4/par_5/oj)</t>
+    <t>Anonymisation is the process by which data is irreversibly altered in such a way that a data subject can no longer be identified directly or indirectly, either by the entity holding the data alone or in collaboration with other entities and information sources</t>
+  </si>
+  <si>
+    <t>dpv:Deidentification</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(ISO 29100:2011,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.iso.org/standard/45123.html)</t>
+    </r>
   </si>
   <si>
     <t>modified</t>
@@ -392,6 +405,9 @@
     <t>Complete Anonymisation</t>
   </si>
   <si>
+    <t>Altering personal data irreversibly such that a data subject can no longer be identified directly or indirectly, either by the data controller alone or in collaboration with any other party</t>
+  </si>
+  <si>
     <t>dpv:Anonymisation</t>
   </si>
   <si>
@@ -404,7 +420,7 @@
     <t>Cryptographic Authentication</t>
   </si>
   <si>
-    <t>Use of crytography for authentication</t>
+    <t>Use of cryptography for authentication</t>
   </si>
   <si>
     <t>dpv:CryptographicMethods,dpv:AuthenticationProtocols</t>
@@ -416,7 +432,7 @@
     <t>Cryptographic Key Management</t>
   </si>
   <si>
-    <t>Management of crytographic keys, including their generation, storage, assessment, and safekeeping</t>
+    <t>Management of cryptographic keys, including their generation, storage, assessment, and safekeeping</t>
   </si>
   <si>
     <t>CryptographicMethods</t>
@@ -480,6 +496,19 @@
   </si>
   <si>
     <t>Removal of identity or information to reduce identifiability</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(NISTIR 8053,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://nvlpubs.nist.gov/nistpubs/ir/2015/NIST.IR.8053.pdf)</t>
+    </r>
   </si>
   <si>
     <t>DeterministicPseudonymisation</t>
@@ -871,9 +900,6 @@
     <t>Use of algorithms that are intended to be secure against cryptanalytic attack by a quantum computer</t>
   </si>
   <si>
-    <t>dpv:CrytographicMethods</t>
-  </si>
-  <si>
     <t>PrivacyPreservingProtocol</t>
   </si>
   <si>
@@ -911,6 +937,9 @@
     <t>Pseudonymisation means the processing of personal data in such a manner that the personal data can no longer be attributed to a specific data subject without the use of additional information, provided that such additional information is kept separately and is subject to technical and organisational measures to ensure that the personal data are not attributed to an identified or identifiable natural person;</t>
   </si>
   <si>
+    <t>(GDPR Art.4-5,https://eur-lex.europa.eu/eli/reg/2016/679/art_4/par_5/oj)</t>
+  </si>
+  <si>
     <t>QuantumCryptography</t>
   </si>
   <si>
@@ -1003,7 +1032,7 @@
     <t>Symmetric Cryptography</t>
   </si>
   <si>
-    <t>Use of crytography where the same keys are utilised for encryption and descryption of information</t>
+    <t>Use of cryptography where the same keys are utilised for encryption and descryption of information</t>
   </si>
   <si>
     <t>SymmetricEncryption</t>
@@ -1012,7 +1041,7 @@
     <t>Symmetric Encryption</t>
   </si>
   <si>
-    <t>Use of symmetric crytography to encrypt data</t>
+    <t>Use of symmetric cryptography to encrypt data</t>
   </si>
   <si>
     <r>
@@ -2089,6 +2118,18 @@
   <si>
     <t>dpv:ReviewProcedure,dpv:Policy</t>
   </si>
+  <si>
+    <t>DataDeletionPolicy</t>
+  </si>
+  <si>
+    <t>DataStoragePolicy</t>
+  </si>
+  <si>
+    <t>DataLocationPolicy</t>
+  </si>
+  <si>
+    <t>DataRestorationPolicy</t>
+  </si>
 </sst>
 </file>
 
@@ -2097,7 +2138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2191,6 +2232,10 @@
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
+    <font>
+      <color rgb="FF0000FF"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2262,7 +2307,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2389,6 +2434,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -9276,7 +9324,7 @@
         <v>43560.0</v>
       </c>
       <c r="L4" s="14">
-        <v>44835.0</v>
+        <v>44889.0</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>84</v>
@@ -9657,10 +9705,10 @@
         <v>114</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>27</v>
@@ -9675,7 +9723,7 @@
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>46</v>
@@ -9697,16 +9745,16 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>27</v>
@@ -9747,13 +9795,13 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>88</v>
@@ -9797,13 +9845,13 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>44</v>
@@ -9847,16 +9895,16 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>27</v>
@@ -9873,7 +9921,7 @@
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="22" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>46</v>
@@ -9897,13 +9945,13 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>44</v>
@@ -9924,10 +9972,10 @@
         <v>20</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -9945,16 +9993,16 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>27</v>
@@ -9991,13 +10039,13 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>44</v>
@@ -10041,16 +10089,16 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>27</v>
@@ -10059,13 +10107,17 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="12"/>
+      <c r="J20" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="K20" s="14">
         <v>43560.0</v>
       </c>
-      <c r="L20" s="14"/>
+      <c r="L20" s="14">
+        <v>44889.0</v>
+      </c>
       <c r="M20" s="12" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>28</v>
@@ -10089,16 +10141,16 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>27</v>
@@ -10108,7 +10160,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K21" s="14">
         <v>44790.0</v>
@@ -10139,13 +10191,13 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>88</v>
@@ -10158,7 +10210,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="14">
         <v>44790.0</v>
@@ -10189,13 +10241,13 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>44</v>
@@ -10239,13 +10291,13 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>88</v>
@@ -10289,16 +10341,16 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>27</v>
@@ -10339,16 +10391,16 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>27</v>
@@ -10358,7 +10410,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K26" s="14">
         <v>44790.0</v>
@@ -10389,16 +10441,16 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>27</v>
@@ -10439,13 +10491,13 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>44</v>
@@ -10487,13 +10539,13 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>92</v>
@@ -10535,13 +10587,13 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>92</v>
@@ -10583,13 +10635,13 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>92</v>
@@ -10629,13 +10681,13 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>92</v>
@@ -10648,7 +10700,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K32" s="14">
         <v>44790.0</v>
@@ -10679,16 +10731,16 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>27</v>
@@ -10729,16 +10781,16 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>27</v>
@@ -10748,7 +10800,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K34" s="14">
         <v>44790.0</v>
@@ -10779,16 +10831,16 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>27</v>
@@ -10829,13 +10881,13 @@
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>88</v>
@@ -10879,13 +10931,13 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>97</v>
@@ -10898,7 +10950,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K37" s="14">
         <v>44790.0</v>
@@ -10929,13 +10981,13 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>88</v>
@@ -10979,13 +11031,13 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>44</v>
@@ -11029,16 +11081,16 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>27</v>
@@ -11079,13 +11131,13 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>97</v>
@@ -11129,16 +11181,16 @@
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>27</v>
@@ -11179,16 +11231,16 @@
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>27</v>
@@ -11198,7 +11250,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K43" s="14">
         <v>44790.0</v>
@@ -11231,13 +11283,13 @@
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>112</v>
@@ -11281,16 +11333,16 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>27</v>
@@ -11300,7 +11352,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K45" s="14">
         <v>44790.0</v>
@@ -11331,16 +11383,16 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>27</v>
@@ -11381,16 +11433,16 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>27</v>
@@ -11431,13 +11483,13 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>112</v>
@@ -11481,16 +11533,16 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>27</v>
@@ -11531,16 +11583,16 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>27</v>
@@ -11558,10 +11610,10 @@
         <v>20</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -11579,16 +11631,16 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>27</v>
@@ -11629,16 +11681,16 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>27</v>
@@ -11679,16 +11731,16 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>27</v>
@@ -11698,7 +11750,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K53" s="14">
         <v>44790.0</v>
@@ -11729,13 +11781,13 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>82</v>
@@ -11748,14 +11800,16 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="23" t="s">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="K54" s="14">
         <v>43560.0</v>
       </c>
-      <c r="L54" s="14"/>
+      <c r="L54" s="14">
+        <v>44889.0</v>
+      </c>
       <c r="M54" s="12" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="N54" s="12" t="s">
         <v>28</v>
@@ -11779,16 +11833,16 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>27</v>
@@ -11829,16 +11883,16 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>27</v>
@@ -11848,7 +11902,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K56" s="14">
         <v>44790.0</v>
@@ -11881,16 +11935,16 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>27</v>
@@ -11900,7 +11954,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K57" s="14">
         <v>44790.0</v>
@@ -11931,16 +11985,16 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>27</v>
@@ -11981,13 +12035,13 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>44</v>
@@ -12027,13 +12081,13 @@
     </row>
     <row r="60">
       <c r="A60" s="27" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>112</v>
@@ -12054,10 +12108,10 @@
         <v>20</v>
       </c>
       <c r="N60" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O60" s="31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P60" s="28"/>
       <c r="Q60" s="28"/>
@@ -12075,16 +12129,16 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>27</v>
@@ -12125,13 +12179,13 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>92</v>
@@ -12144,7 +12198,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K62" s="14">
         <v>44790.0</v>
@@ -12175,16 +12229,16 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>27</v>
@@ -12225,16 +12279,16 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>27</v>
@@ -12244,7 +12298,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K64" s="14">
         <v>44790.0</v>
@@ -12275,16 +12329,16 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>27</v>
@@ -12325,16 +12379,16 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>27</v>
@@ -12344,7 +12398,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="24" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K66" s="14">
         <v>44790.0</v>
@@ -12375,16 +12429,16 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>27</v>
@@ -12425,16 +12479,16 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>27</v>
@@ -12475,16 +12529,16 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>27</v>
@@ -12525,16 +12579,16 @@
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>27</v>
@@ -12575,16 +12629,16 @@
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>27</v>
@@ -12625,16 +12679,16 @@
     </row>
     <row r="72">
       <c r="A72" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>27</v>
@@ -12644,7 +12698,7 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="24" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K72" s="14">
         <v>44790.0</v>
@@ -15325,75 +15379,76 @@
     <hyperlink r:id="rId18" ref="O16"/>
     <hyperlink r:id="rId19" ref="O17"/>
     <hyperlink r:id="rId20" ref="O19"/>
-    <hyperlink r:id="rId21" ref="O20"/>
-    <hyperlink r:id="rId22" ref="J21"/>
-    <hyperlink r:id="rId23" ref="O21"/>
-    <hyperlink r:id="rId24" ref="J22"/>
-    <hyperlink r:id="rId25" ref="O22"/>
-    <hyperlink r:id="rId26" ref="O23"/>
-    <hyperlink r:id="rId27" ref="O24"/>
-    <hyperlink r:id="rId28" ref="O25"/>
-    <hyperlink r:id="rId29" ref="J26"/>
-    <hyperlink r:id="rId30" ref="O26"/>
-    <hyperlink r:id="rId31" ref="O27"/>
-    <hyperlink r:id="rId32" ref="O28"/>
-    <hyperlink r:id="rId33" ref="O29"/>
-    <hyperlink r:id="rId34" ref="O30"/>
-    <hyperlink r:id="rId35" ref="J32"/>
-    <hyperlink r:id="rId36" ref="O32"/>
-    <hyperlink r:id="rId37" ref="O33"/>
-    <hyperlink r:id="rId38" ref="J34"/>
-    <hyperlink r:id="rId39" ref="O34"/>
-    <hyperlink r:id="rId40" ref="O35"/>
-    <hyperlink r:id="rId41" ref="O36"/>
-    <hyperlink r:id="rId42" ref="J37"/>
-    <hyperlink r:id="rId43" ref="O37"/>
-    <hyperlink r:id="rId44" ref="O38"/>
-    <hyperlink r:id="rId45" ref="O39"/>
-    <hyperlink r:id="rId46" ref="O40"/>
-    <hyperlink r:id="rId47" ref="O41"/>
-    <hyperlink r:id="rId48" ref="O42"/>
-    <hyperlink r:id="rId49" ref="J43"/>
-    <hyperlink r:id="rId50" ref="O43"/>
-    <hyperlink r:id="rId51" ref="O44"/>
-    <hyperlink r:id="rId52" ref="J45"/>
-    <hyperlink r:id="rId53" ref="O45"/>
-    <hyperlink r:id="rId54" ref="O46"/>
-    <hyperlink r:id="rId55" ref="O47"/>
-    <hyperlink r:id="rId56" ref="O48"/>
-    <hyperlink r:id="rId57" ref="O49"/>
-    <hyperlink r:id="rId58" ref="O50"/>
-    <hyperlink r:id="rId59" ref="O51"/>
-    <hyperlink r:id="rId60" ref="O52"/>
-    <hyperlink r:id="rId61" ref="J53"/>
-    <hyperlink r:id="rId62" ref="O53"/>
-    <hyperlink r:id="rId63" ref="J54"/>
-    <hyperlink r:id="rId64" ref="O54"/>
-    <hyperlink r:id="rId65" ref="O55"/>
-    <hyperlink r:id="rId66" ref="J56"/>
-    <hyperlink r:id="rId67" ref="O56"/>
-    <hyperlink r:id="rId68" ref="J57"/>
-    <hyperlink r:id="rId69" ref="O57"/>
-    <hyperlink r:id="rId70" ref="O58"/>
-    <hyperlink r:id="rId71" ref="O60"/>
-    <hyperlink r:id="rId72" ref="O61"/>
-    <hyperlink r:id="rId73" ref="J62"/>
-    <hyperlink r:id="rId74" ref="O62"/>
-    <hyperlink r:id="rId75" ref="O63"/>
-    <hyperlink r:id="rId76" ref="J64"/>
-    <hyperlink r:id="rId77" ref="O64"/>
-    <hyperlink r:id="rId78" ref="O65"/>
-    <hyperlink r:id="rId79" ref="J66"/>
-    <hyperlink r:id="rId80" ref="O66"/>
-    <hyperlink r:id="rId81" ref="O67"/>
-    <hyperlink r:id="rId82" ref="O68"/>
-    <hyperlink r:id="rId83" ref="O69"/>
-    <hyperlink r:id="rId84" ref="O70"/>
-    <hyperlink r:id="rId85" ref="O71"/>
-    <hyperlink r:id="rId86" ref="J72"/>
-    <hyperlink r:id="rId87" ref="O72"/>
+    <hyperlink r:id="rId21" ref="J20"/>
+    <hyperlink r:id="rId22" ref="O20"/>
+    <hyperlink r:id="rId23" ref="J21"/>
+    <hyperlink r:id="rId24" ref="O21"/>
+    <hyperlink r:id="rId25" ref="J22"/>
+    <hyperlink r:id="rId26" ref="O22"/>
+    <hyperlink r:id="rId27" ref="O23"/>
+    <hyperlink r:id="rId28" ref="O24"/>
+    <hyperlink r:id="rId29" ref="O25"/>
+    <hyperlink r:id="rId30" ref="J26"/>
+    <hyperlink r:id="rId31" ref="O26"/>
+    <hyperlink r:id="rId32" ref="O27"/>
+    <hyperlink r:id="rId33" ref="O28"/>
+    <hyperlink r:id="rId34" ref="O29"/>
+    <hyperlink r:id="rId35" ref="O30"/>
+    <hyperlink r:id="rId36" ref="J32"/>
+    <hyperlink r:id="rId37" ref="O32"/>
+    <hyperlink r:id="rId38" ref="O33"/>
+    <hyperlink r:id="rId39" ref="J34"/>
+    <hyperlink r:id="rId40" ref="O34"/>
+    <hyperlink r:id="rId41" ref="O35"/>
+    <hyperlink r:id="rId42" ref="O36"/>
+    <hyperlink r:id="rId43" ref="J37"/>
+    <hyperlink r:id="rId44" ref="O37"/>
+    <hyperlink r:id="rId45" ref="O38"/>
+    <hyperlink r:id="rId46" ref="O39"/>
+    <hyperlink r:id="rId47" ref="O40"/>
+    <hyperlink r:id="rId48" ref="O41"/>
+    <hyperlink r:id="rId49" ref="O42"/>
+    <hyperlink r:id="rId50" ref="J43"/>
+    <hyperlink r:id="rId51" ref="O43"/>
+    <hyperlink r:id="rId52" ref="O44"/>
+    <hyperlink r:id="rId53" ref="J45"/>
+    <hyperlink r:id="rId54" ref="O45"/>
+    <hyperlink r:id="rId55" ref="O46"/>
+    <hyperlink r:id="rId56" ref="O47"/>
+    <hyperlink r:id="rId57" ref="O48"/>
+    <hyperlink r:id="rId58" ref="O49"/>
+    <hyperlink r:id="rId59" ref="O50"/>
+    <hyperlink r:id="rId60" ref="O51"/>
+    <hyperlink r:id="rId61" ref="O52"/>
+    <hyperlink r:id="rId62" ref="J53"/>
+    <hyperlink r:id="rId63" ref="O53"/>
+    <hyperlink r:id="rId64" ref="J54"/>
+    <hyperlink r:id="rId65" ref="O54"/>
+    <hyperlink r:id="rId66" ref="O55"/>
+    <hyperlink r:id="rId67" ref="J56"/>
+    <hyperlink r:id="rId68" ref="O56"/>
+    <hyperlink r:id="rId69" ref="J57"/>
+    <hyperlink r:id="rId70" ref="O57"/>
+    <hyperlink r:id="rId71" ref="O58"/>
+    <hyperlink r:id="rId72" ref="O60"/>
+    <hyperlink r:id="rId73" ref="O61"/>
+    <hyperlink r:id="rId74" ref="J62"/>
+    <hyperlink r:id="rId75" ref="O62"/>
+    <hyperlink r:id="rId76" ref="O63"/>
+    <hyperlink r:id="rId77" ref="J64"/>
+    <hyperlink r:id="rId78" ref="O64"/>
+    <hyperlink r:id="rId79" ref="O65"/>
+    <hyperlink r:id="rId80" ref="J66"/>
+    <hyperlink r:id="rId81" ref="O66"/>
+    <hyperlink r:id="rId82" ref="O67"/>
+    <hyperlink r:id="rId83" ref="O68"/>
+    <hyperlink r:id="rId84" ref="O69"/>
+    <hyperlink r:id="rId85" ref="O70"/>
+    <hyperlink r:id="rId86" ref="O71"/>
+    <hyperlink r:id="rId87" ref="J72"/>
+    <hyperlink r:id="rId88" ref="O72"/>
   </hyperlinks>
-  <drawing r:id="rId88"/>
+  <drawing r:id="rId89"/>
 </worksheet>
 </file>
 
@@ -15465,13 +15520,13 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>51</v>
@@ -15495,7 +15550,7 @@
         <v>46</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
@@ -15513,16 +15568,16 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>27</v>
@@ -15532,7 +15587,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K3" s="14">
         <v>44790.0</v>
@@ -15563,13 +15618,13 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>51</v>
@@ -15581,7 +15636,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="36" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="14">
@@ -15613,16 +15668,16 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>27</v>
@@ -15632,7 +15687,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="24" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" s="14">
         <v>44790.0</v>
@@ -15663,16 +15718,16 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
@@ -15711,13 +15766,13 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>51</v>
@@ -15759,16 +15814,16 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>27</v>
@@ -15807,16 +15862,16 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>27</v>
@@ -15826,7 +15881,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="24" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K9" s="14">
         <v>44790.0</v>
@@ -15857,16 +15912,16 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>27</v>
@@ -15905,16 +15960,16 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>27</v>
@@ -15953,13 +16008,13 @@
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>51</v>
@@ -15980,10 +16035,10 @@
         <v>20</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
@@ -16001,16 +16056,16 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>27</v>
@@ -16028,10 +16083,10 @@
         <v>20</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -16049,16 +16104,16 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>27</v>
@@ -16076,10 +16131,10 @@
         <v>20</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
@@ -16097,16 +16152,16 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>27</v>
@@ -16124,7 +16179,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O15" s="38"/>
       <c r="P15" s="13"/>
@@ -16143,16 +16198,16 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>27</v>
@@ -16170,10 +16225,10 @@
         <v>20</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -16191,16 +16246,16 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>27</v>
@@ -16239,16 +16294,16 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>27</v>
@@ -16266,7 +16321,7 @@
         <v>20</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O18" s="35" t="s">
         <v>56</v>
@@ -16287,16 +16342,16 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>27</v>
@@ -16314,10 +16369,10 @@
         <v>20</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -16335,16 +16390,16 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>27</v>
@@ -16354,7 +16409,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K20" s="14">
         <v>44790.0</v>
@@ -16385,16 +16440,16 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>27</v>
@@ -16435,16 +16490,16 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>27</v>
@@ -16453,7 +16508,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="14">
@@ -16464,7 +16519,7 @@
         <v>20</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O22" s="35" t="s">
         <v>56</v>
@@ -16485,16 +16540,16 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>27</v>
@@ -16515,7 +16570,7 @@
         <v>46</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -16533,16 +16588,16 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>27</v>
@@ -16552,7 +16607,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="24" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K24" s="14">
         <v>44790.0</v>
@@ -16583,16 +16638,16 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>27</v>
@@ -16610,10 +16665,10 @@
         <v>20</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -16631,16 +16686,16 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>27</v>
@@ -16679,16 +16734,16 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>27</v>
@@ -16698,7 +16753,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="24" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K27" s="14">
         <v>44790.0</v>
@@ -16729,16 +16784,16 @@
     </row>
     <row r="28">
       <c r="A28" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>27</v>
@@ -16747,7 +16802,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="25" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="30">
@@ -16758,10 +16813,10 @@
         <v>20</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
@@ -16779,16 +16834,16 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>27</v>
@@ -16829,16 +16884,16 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>27</v>
@@ -16848,7 +16903,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="24" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K30" s="14">
         <v>44790.0</v>
@@ -16879,13 +16934,13 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>51</v>
@@ -16898,7 +16953,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="24" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K31" s="14">
         <v>44790.0</v>
@@ -16929,13 +16984,13 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>51</v>
@@ -16977,16 +17032,16 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>27</v>
@@ -17027,16 +17082,16 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>27</v>
@@ -17054,10 +17109,10 @@
         <v>20</v>
       </c>
       <c r="N34" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -17075,16 +17130,16 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>27</v>
@@ -17094,7 +17149,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="24" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K35" s="14">
         <v>44790.0</v>
@@ -17125,16 +17180,16 @@
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>27</v>
@@ -17144,7 +17199,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="24" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K36" s="14">
         <v>44790.0</v>
@@ -17175,13 +17230,13 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>55</v>
@@ -17194,7 +17249,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="24" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K37" s="14">
         <v>44790.0</v>
@@ -17225,16 +17280,16 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>27</v>
@@ -17252,7 +17307,7 @@
         <v>20</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O38" s="35" t="s">
         <v>56</v>
@@ -17273,13 +17328,13 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>51</v>
@@ -17321,16 +17376,16 @@
     </row>
     <row r="40">
       <c r="A40" s="25" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>27</v>
@@ -17348,10 +17403,10 @@
         <v>20</v>
       </c>
       <c r="N40" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P40" s="33"/>
       <c r="Q40" s="33"/>
@@ -17369,16 +17424,16 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>27</v>
@@ -17388,7 +17443,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K41" s="14">
         <v>44790.0</v>
@@ -17419,16 +17474,16 @@
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>27</v>
@@ -17438,7 +17493,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="24" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K42" s="14">
         <v>44790.0</v>
@@ -17469,16 +17524,16 @@
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>27</v>
@@ -17517,13 +17572,13 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>51</v>
@@ -17544,10 +17599,10 @@
         <v>20</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O44" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
@@ -17565,16 +17620,16 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>27</v>
@@ -17592,10 +17647,10 @@
         <v>20</v>
       </c>
       <c r="N45" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -17613,13 +17668,13 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>51</v>
@@ -17640,10 +17695,10 @@
         <v>20</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -17661,16 +17716,16 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>27</v>
@@ -17709,13 +17764,13 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>51</v>
@@ -17757,13 +17812,13 @@
     </row>
     <row r="49">
       <c r="A49" s="25" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>68</v>
@@ -17784,10 +17839,10 @@
         <v>20</v>
       </c>
       <c r="N49" s="22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="O49" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P49" s="33"/>
       <c r="Q49" s="33"/>
@@ -17805,16 +17860,16 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>27</v>
@@ -17855,13 +17910,13 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>51</v>
@@ -17882,10 +17937,10 @@
         <v>20</v>
       </c>
       <c r="N51" s="40" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
@@ -17903,16 +17958,16 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>27</v>
@@ -17921,7 +17976,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="40" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="14">
@@ -17932,10 +17987,10 @@
         <v>20</v>
       </c>
       <c r="N52" s="40" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O52" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
@@ -17953,13 +18008,13 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>51</v>
@@ -18001,16 +18056,16 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>27</v>
@@ -18020,7 +18075,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="12" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K54" s="14">
         <v>44791.0</v>
@@ -18049,16 +18104,16 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>27</v>
@@ -18068,7 +18123,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="12" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K55" s="14">
         <v>44791.0</v>
@@ -18097,13 +18152,13 @@
     </row>
     <row r="56">
       <c r="A56" s="42" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>51</v>
@@ -18115,7 +18170,7 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="25" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J56" s="44"/>
       <c r="K56" s="34">
@@ -18126,10 +18181,10 @@
         <v>20</v>
       </c>
       <c r="N56" s="22" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O56" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P56" s="33"/>
       <c r="Q56" s="33"/>
@@ -18147,16 +18202,16 @@
     </row>
     <row r="57">
       <c r="A57" s="25" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>27</v>
@@ -18174,10 +18229,10 @@
         <v>20</v>
       </c>
       <c r="N57" s="22" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O57" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P57" s="33"/>
       <c r="Q57" s="33"/>
@@ -18195,16 +18250,16 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>27</v>
@@ -18243,16 +18298,16 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>27</v>
@@ -18262,7 +18317,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="24" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K59" s="14">
         <v>44790.0</v>
@@ -18293,16 +18348,16 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>27</v>
@@ -18312,7 +18367,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="24" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K60" s="14">
         <v>44790.0</v>
@@ -18343,13 +18398,13 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>51</v>
@@ -18389,16 +18444,16 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>27</v>
@@ -18408,7 +18463,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="24" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K62" s="14">
         <v>44790.0</v>
@@ -18439,13 +18494,13 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>51</v>
@@ -18487,16 +18542,16 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>27</v>
@@ -18514,7 +18569,7 @@
         <v>20</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O64" s="35" t="s">
         <v>56</v>
@@ -18535,16 +18590,16 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>27</v>
@@ -18583,16 +18638,16 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>27</v>
@@ -18602,7 +18657,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="24" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K66" s="14">
         <v>44790.0</v>
@@ -18633,16 +18688,16 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>27</v>
@@ -18652,7 +18707,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="24" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K67" s="14">
         <v>44790.0</v>
@@ -18683,13 +18738,13 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>51</v>
@@ -18710,10 +18765,10 @@
         <v>20</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
@@ -18731,16 +18786,16 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>27</v>
@@ -18758,10 +18813,10 @@
         <v>20</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
@@ -18779,16 +18834,16 @@
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
@@ -18801,7 +18856,9 @@
       <c r="M70" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N70" s="13"/>
+      <c r="N70" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
       <c r="Q70" s="13"/>
@@ -18823,16 +18880,148 @@
       <c r="K71" s="14"/>
     </row>
     <row r="72">
+      <c r="A72" s="12" t="s">
+        <v>573</v>
+      </c>
       <c r="B72" s="18"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N72" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
     </row>
     <row r="73">
+      <c r="A73" s="12" t="s">
+        <v>574</v>
+      </c>
       <c r="B73" s="18"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N73" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="13"/>
     </row>
     <row r="74">
+      <c r="A74" s="12" t="s">
+        <v>575</v>
+      </c>
       <c r="B74" s="18"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N74" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
     </row>
     <row r="75">
+      <c r="A75" s="12" t="s">
+        <v>576</v>
+      </c>
       <c r="B75" s="18"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N75" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
     </row>
     <row r="76">
       <c r="B76" s="18"/>
